--- a/figures_submission/Reagent.table.xlsx
+++ b/figures_submission/Reagent.table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t xml:space="preserve">Reagent type (species)</t>
   </si>
@@ -261,12 +261,15 @@
     <t xml:space="preserve">TßhnM18 </t>
   </si>
   <si>
-    <t xml:space="preserve">PMID: 8656284</t>
+    <t xml:space="preserve">PMID:8656284</t>
   </si>
   <si>
     <t xml:space="preserve">FLYB:FBal0061578</t>
   </si>
   <si>
+    <t xml:space="preserve">Obtained_from:Henrike Scholz, Cologne</t>
+  </si>
+  <si>
     <t xml:space="preserve">oamb286</t>
   </si>
   <si>
@@ -276,7 +279,7 @@
     <t xml:space="preserve">FLYB:FBal0152344</t>
   </si>
   <si>
-    <t xml:space="preserve">put in w+ genetic background</t>
+    <t xml:space="preserve">put in w+ genetic background; Obtained_from:Hiromu Tanimoto, Martinsried</t>
   </si>
   <si>
     <t xml:space="preserve">oamb584</t>
@@ -294,7 +297,7 @@
     <t xml:space="preserve">FLYB:FBal0104701</t>
   </si>
   <si>
-    <t xml:space="preserve">also named Oct-TyrR; put in w+ genetic background</t>
+    <t xml:space="preserve">also named Oct-TyrR; put in w+ genetic background;Obtained_from:Andreas Thum, Konstanz</t>
   </si>
   <si>
     <t xml:space="preserve">hsp-tßh</t>
@@ -306,24 +309,30 @@
     <t xml:space="preserve">FLYB:FBal0152162</t>
   </si>
   <si>
-    <t xml:space="preserve">stock w[*] hsp-tßh</t>
+    <t xml:space="preserve">stock w[*] hsp-tßh; Obtained_from:Amita Seghal, Chevy Chase</t>
   </si>
   <si>
     <t xml:space="preserve">w+;;UAS-tßh</t>
   </si>
   <si>
-    <t xml:space="preserve">DOI: 10.1016/j.ydbio.2003.07.019</t>
+    <t xml:space="preserve">DOI:10.1016/j.ydbio.2003.07.019</t>
   </si>
   <si>
     <t xml:space="preserve">FLYB:FBti0038601</t>
   </si>
   <si>
+    <t xml:space="preserve">Obtained_from:Amita Seghal, Chevy Chase</t>
+  </si>
+  <si>
     <t xml:space="preserve">TyrRf05682</t>
   </si>
   <si>
     <t xml:space="preserve">FLYB:FBal0184987</t>
   </si>
   <si>
+    <t xml:space="preserve">put in w+ genetic background; Obtained_from:Edward Blumenthal, Milwaukee</t>
+  </si>
+  <si>
     <t xml:space="preserve">TyrRII∆​29</t>
   </si>
   <si>
@@ -351,16 +360,16 @@
     <t xml:space="preserve">Sigma Aldrich, Seelze, Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">GAGO20-1KT</t>
+  </si>
+  <si>
     <t xml:space="preserve">software, algorithm</t>
   </si>
   <si>
     <t xml:space="preserve">Specific Statistical analysis in R</t>
   </si>
   <si>
-    <t xml:space="preserve">“this paper”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.4663666</t>
+    <t xml:space="preserve">this paper; DOI:10.6084/m9.figshare.4663666</t>
   </si>
   <si>
     <t xml:space="preserve">Used packages:base, tidyverse, cowplot, ggfortify,survival</t>
@@ -473,6 +482,7 @@
       <color rgb="FF000000"/>
       <name val=".Helvetica Neue DeskInterface"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -573,7 +583,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -616,10 +626,6 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -737,8 +743,8 @@
   </sheetPr>
   <dimension ref="A1:AMG14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -785,7 +791,7 @@
       <c r="U1" s="5"/>
       <c r="AMG1" s="7"/>
     </row>
-    <row r="2" s="11" customFormat="true" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -803,201 +809,202 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="15" t="s">
         <v>16</v>
       </c>
+      <c r="D4" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="E10" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="B11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>38</v>
+      <c r="A12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
-        <v>39</v>
+      <c r="A13" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
-        <v>42</v>
+      <c r="A14" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>45</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D14" s="17"/>
       <c r="E14" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" display="https://doi.org/10.6084/m9.figshare.4663666"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
